--- a/中期_简单回归/data/04-09.xlsx
+++ b/中期_简单回归/data/04-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>时间</t>
   </si>
@@ -70,13 +70,7 @@
     <t>DR007</t>
   </si>
   <si>
-    <t>y_t-1</t>
-  </si>
-  <si>
     <t>中债国债到期收益率:1年:月</t>
-  </si>
-  <si>
-    <t>2004.02</t>
   </si>
   <si>
     <t>2004.03</t>
@@ -285,20 +279,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -320,20 +321,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -344,8 +336,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,38 +403,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,32 +450,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,13 +460,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +487,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +553,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,61 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,31 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,31 +649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,17 +681,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,17 +720,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +734,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,24 +770,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -776,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,19 +796,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,116 +817,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -927,22 +935,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1263,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A69" sqref="$A69:$XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1274,10 +1291,10 @@
     <col min="7" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9.375"/>
     <col min="15" max="15" width="12.625"/>
-    <col min="22" max="22" width="12.625"/>
+    <col min="21" max="21" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.75" spans="1:20">
+    <row r="1" ht="51.75" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,75 +1304,72 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+    </row>
+    <row r="2" ht="17.25" spans="1:19">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>8.2771</v>
       </c>
-      <c r="C2" s="5">
-        <v>1.0721875</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="6">
+        <v>1.0750547826087</v>
+      </c>
+      <c r="D2" s="6">
         <v>1.06014989473684</v>
       </c>
-      <c r="E2" s="5">
-        <v>1.24368421052632</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="6">
+        <v>1.18739130434783</v>
+      </c>
+      <c r="F2" s="6">
         <v>1.00724137931034</v>
       </c>
       <c r="G2" s="1">
@@ -1364,60 +1378,57 @@
       <c r="H2" s="1">
         <v>28.9</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <v>53</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <v>57.1</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="10">
         <v>9.2</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="10">
         <v>23.2</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="10">
         <v>2.1</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="10">
         <v>3.5</v>
       </c>
       <c r="O2">
         <v>21.148592430506</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="10">
         <v>19.8</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="10">
         <v>19.4</v>
       </c>
-      <c r="R2" s="8">
-        <v>2.2103</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2.37851666666667</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2.404725</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:20">
+      <c r="R2" s="10">
+        <v>1.91204347826087</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2.48729130434783</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4">
-        <v>8.2771</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.0750547826087</v>
-      </c>
-      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8.2769</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.0773125</v>
+      </c>
+      <c r="D3" s="6">
         <v>1.03237282608696</v>
       </c>
-      <c r="E3" s="5">
-        <v>1.18739130434783</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="6">
+        <v>1.43380952380952</v>
+      </c>
+      <c r="F3" s="6">
         <v>1.00161290322581</v>
       </c>
       <c r="G3" s="1">
@@ -1426,60 +1437,57 @@
       <c r="H3" s="1">
         <v>34.1</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>47.8</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <v>41.1</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="10">
         <v>11.1</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="10">
         <v>19.4</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="10">
         <v>3</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="10">
         <v>4</v>
       </c>
       <c r="O3">
         <v>22.2089609394945</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="10">
         <v>20.1</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="10">
         <v>19.1</v>
       </c>
-      <c r="R3" s="8">
-        <v>1.91204347826087</v>
-      </c>
-      <c r="S3" s="5">
-        <v>2.404725</v>
-      </c>
-      <c r="T3" s="5">
-        <v>2.48729130434783</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:20">
+      <c r="R3" s="10">
+        <v>2.11032272727273</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2.66013809523809</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8.2769</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.0773125</v>
-      </c>
-      <c r="D4" s="5">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8.277</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.08046052631579</v>
+      </c>
+      <c r="D4" s="6">
         <v>1.04184042857143</v>
       </c>
-      <c r="E4" s="5">
-        <v>1.43380952380952</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="6">
+        <v>1.7775</v>
+      </c>
+      <c r="F4" s="6">
         <v>1.004</v>
       </c>
       <c r="G4" s="1">
@@ -1488,60 +1496,57 @@
       <c r="H4" s="1">
         <v>33.5</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <v>42.8</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="9">
         <v>34.6</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="10">
         <v>13.2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="10">
         <v>19.1</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="10">
         <v>3.8</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="10">
         <v>5</v>
       </c>
       <c r="O4">
         <v>21.9118404037614</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>20</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="10">
         <v>19.1</v>
       </c>
-      <c r="R4" s="8">
-        <v>2.11032272727273</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2.48729130434783</v>
-      </c>
-      <c r="T4" s="5">
-        <v>2.66013809523809</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:20">
+      <c r="R4" s="10">
+        <v>2.17891111111111</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2.84195</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4">
-        <v>8.277</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.08046052631579</v>
-      </c>
-      <c r="D5" s="5">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8.2766</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.14113636363636</v>
+      </c>
+      <c r="D5" s="6">
         <v>1.00838055</v>
       </c>
-      <c r="E5" s="5">
-        <v>1.7775</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="6">
+        <v>2.1152380952381</v>
+      </c>
+      <c r="F5" s="6">
         <v>1.00451612903226</v>
       </c>
       <c r="G5" s="1">
@@ -1550,60 +1555,57 @@
       <c r="H5" s="1">
         <v>33.4</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>34.8</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>32</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="10">
         <v>17.8</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="10">
         <v>17.5</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="10">
         <v>4.4</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="10">
         <v>5.7</v>
       </c>
       <c r="O5">
         <v>21.185286523328</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>18.6</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="10">
         <v>17.5</v>
       </c>
-      <c r="R5" s="8">
-        <v>2.17891111111111</v>
-      </c>
-      <c r="S5" s="5">
-        <v>2.66013809523809</v>
-      </c>
-      <c r="T5" s="5">
-        <v>2.84195</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:20">
+      <c r="R5" s="10">
+        <v>2.41588181818182</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2.95708636363636</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8.2766</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.14113636363636</v>
-      </c>
-      <c r="D6" s="5">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8.2767</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.33392045454545</v>
+      </c>
+      <c r="D6" s="6">
         <v>1.0364900952381</v>
       </c>
-      <c r="E6" s="5">
-        <v>2.1152380952381</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="6">
+        <v>2.0952380952381</v>
+      </c>
+      <c r="F6" s="6">
         <v>1.02566666666667</v>
       </c>
       <c r="G6" s="1">
@@ -1612,60 +1614,57 @@
       <c r="H6" s="1">
         <v>35.7</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <v>31</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <v>28.7</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <v>13.9</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="10">
         <v>16.2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="10">
         <v>5</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="10">
         <v>6.4</v>
       </c>
       <c r="O6">
         <v>18.8948041519198</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>16.2</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="10">
         <v>16.2</v>
       </c>
-      <c r="R6" s="8">
-        <v>2.41588181818182</v>
-      </c>
-      <c r="S6" s="5">
-        <v>2.84195</v>
-      </c>
-      <c r="T6" s="5">
-        <v>2.95708636363636</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="1:20">
+      <c r="R6" s="10">
+        <v>2.33817272727273</v>
+      </c>
+      <c r="S6" s="6">
+        <v>3.06982727272727</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4">
-        <v>8.2767</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.33392045454545</v>
-      </c>
-      <c r="D7" s="5">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8.2768</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.53845238095238</v>
+      </c>
+      <c r="D7" s="6">
         <v>1.01520876190476</v>
       </c>
-      <c r="E7" s="5">
-        <v>2.0952380952381</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="6">
+        <v>2.01590909090909</v>
+      </c>
+      <c r="F7" s="6">
         <v>1.26354838709677</v>
       </c>
       <c r="G7" s="1">
@@ -1674,60 +1673,57 @@
       <c r="H7" s="1">
         <v>35.5</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <v>31.1</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <v>28.6</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="10">
         <v>13.2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="10">
         <v>15.5</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="10">
         <v>5.3</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="10">
         <v>6.4</v>
       </c>
       <c r="O7">
         <v>18.3000017703397</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="10">
         <v>15</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="10">
         <v>15.3</v>
       </c>
-      <c r="R7" s="8">
-        <v>2.33817272727273</v>
-      </c>
-      <c r="S7" s="5">
-        <v>2.95708636363636</v>
-      </c>
-      <c r="T7" s="5">
-        <v>3.06982727272727</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:20">
+      <c r="R7" s="10">
+        <v>2.28101818181818</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3.25518181818182</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8.2768</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.53845238095238</v>
-      </c>
-      <c r="D8" s="5">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8.2766</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.70662</v>
+      </c>
+      <c r="D8" s="6">
         <v>1.00328013636364</v>
       </c>
-      <c r="E8" s="5">
-        <v>2.01590909090909</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="6">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="F8" s="6">
         <v>1.42935483870968</v>
       </c>
       <c r="G8" s="1">
@@ -1736,60 +1732,57 @@
       <c r="H8" s="1">
         <v>35.8</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <v>30.3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="9">
         <v>28.8</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="10">
         <v>13.1</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="10">
         <v>15.9</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="10">
         <v>5.3</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="10">
         <v>6.8</v>
       </c>
       <c r="O8">
         <v>16.8948952425049</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="10">
         <v>15.14</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="10">
         <v>13.63</v>
       </c>
-      <c r="R8" s="8">
-        <v>2.28101818181818</v>
-      </c>
-      <c r="S8" s="5">
-        <v>3.06982727272727</v>
-      </c>
-      <c r="T8" s="5">
-        <v>3.25518181818182</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:20">
+      <c r="R8" s="10">
+        <v>2.13606363636364</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3.03071818181818</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8.2766</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1.70662</v>
-      </c>
-      <c r="D9" s="5">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.2765</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.82961428571429</v>
+      </c>
+      <c r="D9" s="6">
         <v>1.02046704761905</v>
       </c>
-      <c r="E9" s="5">
-        <v>2.11666666666667</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="6">
+        <v>2.228</v>
+      </c>
+      <c r="F9" s="6">
         <v>1.605</v>
       </c>
       <c r="G9" s="1">
@@ -1798,60 +1791,57 @@
       <c r="H9" s="1">
         <v>35.3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <v>29.9</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="9">
         <v>28.3</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="10">
         <v>14</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="10">
         <v>16.1</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="10">
         <v>5.2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="10">
         <v>7.9</v>
       </c>
       <c r="O9">
         <v>15.9099649360932</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="10">
         <v>13.7</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="10">
         <v>13.94</v>
       </c>
-      <c r="R9" s="8">
-        <v>2.13606363636364</v>
-      </c>
-      <c r="S9" s="5">
-        <v>3.25518181818182</v>
-      </c>
-      <c r="T9" s="5">
-        <v>3.03071818181818</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" spans="1:20">
+      <c r="R9" s="10">
+        <v>2.14072777777778</v>
+      </c>
+      <c r="S9" s="6">
+        <v>3.00037777777778</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C10" s="5">
-        <v>1.82961428571429</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="6">
+        <v>2.0452</v>
+      </c>
+      <c r="D10" s="6">
         <v>1.00016023809524</v>
       </c>
-      <c r="E10" s="5">
-        <v>2.228</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="6">
         <v>1.76096774193548</v>
       </c>
       <c r="G10" s="1">
@@ -1860,60 +1850,57 @@
       <c r="H10" s="1">
         <v>34.5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <v>29.5</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>28.9</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="10">
         <v>14.2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="10">
         <v>15.7</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="10">
         <v>4.3</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="10">
         <v>8.4</v>
       </c>
       <c r="O10">
         <v>15.3882878935957</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="10">
         <v>12.57</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="10">
         <v>13.45</v>
       </c>
-      <c r="R10" s="8">
-        <v>2.14072777777778</v>
-      </c>
-      <c r="S10" s="5">
-        <v>3.03071818181818</v>
-      </c>
-      <c r="T10" s="5">
-        <v>3.00037777777778</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25" spans="1:20">
+      <c r="R10" s="10">
+        <v>2.04170454545455</v>
+      </c>
+      <c r="S10" s="6">
+        <v>3.01098181818182</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C11" s="5">
-        <v>2.0452</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="6">
+        <v>2.29264952380952</v>
+      </c>
+      <c r="D11" s="6">
         <v>1.04117561904762</v>
       </c>
-      <c r="E11" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="6">
+        <v>2.67045454545455</v>
+      </c>
+      <c r="F11" s="6">
         <v>1.932</v>
       </c>
       <c r="G11" s="1">
@@ -1922,60 +1909,57 @@
       <c r="H11" s="1">
         <v>35.7</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <v>28.9</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>29.2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="10">
         <v>13.9</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="10">
         <v>14.8</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="10">
         <v>2.8</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="10">
         <v>8.1</v>
       </c>
       <c r="O11">
         <v>15.3121699004837</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="10">
         <v>13.8</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="10">
         <v>14</v>
       </c>
-      <c r="R11" s="8">
-        <v>2.04170454545455</v>
-      </c>
-      <c r="S11" s="5">
-        <v>3.00037777777778</v>
-      </c>
-      <c r="T11" s="5">
-        <v>3.01098181818182</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" spans="1:20">
+      <c r="R11" s="10">
+        <v>1.8366</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2.91389130434783</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C12" s="5">
-        <v>2.29264952380952</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="6">
+        <v>2.370594</v>
+      </c>
+      <c r="D12" s="6">
         <v>1.06733840909091</v>
       </c>
-      <c r="E12" s="5">
-        <v>2.67045454545455</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="6">
+        <v>2.8605</v>
+      </c>
+      <c r="F12" s="6">
         <v>2.15612903225806</v>
       </c>
       <c r="G12" s="1">
@@ -1984,60 +1968,57 @@
       <c r="H12" s="1">
         <v>35.4</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>27.6</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>28.1</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="10">
         <v>14.5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="10">
         <v>14.4</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="10">
         <v>2.4</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="10">
         <v>7.1</v>
       </c>
       <c r="O12">
         <v>15.6990261449377</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="10">
         <v>13.6</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="10">
         <v>14.6</v>
       </c>
-      <c r="R12" s="8">
-        <v>1.8366</v>
-      </c>
-      <c r="S12" s="5">
-        <v>3.01098181818182</v>
-      </c>
-      <c r="T12" s="5">
-        <v>2.91389130434783</v>
-      </c>
-    </row>
-    <row r="13" ht="17.25" spans="1:20">
+      <c r="R12" s="10">
+        <v>1.841285</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2.82034</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C13" s="5">
-        <v>2.370594</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="6">
+        <v>2.570125</v>
+      </c>
+      <c r="D13" s="6">
         <v>1.0539513</v>
       </c>
-      <c r="E13" s="5">
-        <v>2.8605</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="6">
+        <v>3.02947368421053</v>
+      </c>
+      <c r="F13" s="6">
         <v>2.27935483870968</v>
       </c>
       <c r="G13" s="1">
@@ -2046,60 +2027,57 @@
       <c r="H13" s="1">
         <v>42.1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="9">
         <v>24.5</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="9">
         <v>27</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="10">
         <v>11.5</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="10">
         <v>20.9</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="10">
         <v>1.9</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="10">
         <v>5.8</v>
       </c>
       <c r="O13">
         <v>16.3354690430503</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="10">
         <v>15.32</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="10">
         <v>14.13</v>
       </c>
-      <c r="R13" s="8">
-        <v>1.841285</v>
-      </c>
-      <c r="S13" s="5">
-        <v>2.91389130434783</v>
-      </c>
-      <c r="T13" s="5">
-        <v>2.82034</v>
-      </c>
-    </row>
-    <row r="14" ht="17.25" spans="1:20">
+      <c r="R13" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="S13" s="6">
+        <v>2.84476470588235</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C14" s="5">
-        <v>2.570125</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="6">
+        <v>2.70901809523809</v>
+      </c>
+      <c r="D14" s="6">
         <v>1.07238157894737</v>
       </c>
-      <c r="E14" s="5">
-        <v>3.02947368421053</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="6">
+        <v>3.30227272727273</v>
+      </c>
+      <c r="F14" s="6">
         <v>2.50178571428571</v>
       </c>
       <c r="G14" s="1">
@@ -2108,60 +2086,57 @@
       <c r="H14" s="1">
         <v>36.2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>24.5</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <v>27</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="10">
         <v>15.8</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="10">
         <v>7.6</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="10">
         <v>3.9</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="10">
         <v>5.38</v>
       </c>
       <c r="O14">
         <v>16.505515898767</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="10">
         <v>10.6</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="10">
         <v>13.9</v>
       </c>
-      <c r="R14" s="8">
-        <v>2.06</v>
-      </c>
-      <c r="S14" s="5">
-        <v>2.82034</v>
-      </c>
-      <c r="T14" s="5">
-        <v>2.84476470588235</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" spans="1:20">
+      <c r="R14" s="10">
+        <v>1.70607826086957</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2.75116086956522</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C15" s="5">
-        <v>2.70901809523809</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="6">
+        <v>2.88417285714286</v>
+      </c>
+      <c r="D15" s="6">
         <v>1.06820931818182</v>
       </c>
-      <c r="E15" s="5">
-        <v>3.30227272727273</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="6">
+        <v>3.31666666666667</v>
+      </c>
+      <c r="F15" s="6">
         <v>2.62903225806452</v>
       </c>
       <c r="G15" s="1">
@@ -2170,60 +2145,57 @@
       <c r="H15" s="1">
         <v>34.9</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="9">
         <v>25.3</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9">
         <v>26.7</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="10">
         <v>13.9</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="10">
         <v>15.1</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="10">
         <v>2.7</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="10">
         <v>5.6</v>
       </c>
       <c r="O15">
         <v>14.7035936431007</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="10">
         <v>9.9</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="10">
         <v>14</v>
       </c>
-      <c r="R15" s="8">
-        <v>1.70607826086957</v>
-      </c>
-      <c r="S15" s="5">
-        <v>2.84476470588235</v>
-      </c>
-      <c r="T15" s="5">
-        <v>2.75116086956522</v>
-      </c>
-    </row>
-    <row r="16" ht="17.25" spans="1:20">
+      <c r="R15" s="10">
+        <v>1.28517727272727</v>
+      </c>
+      <c r="S15" s="6">
+        <v>2.60552727272727</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C16" s="5">
-        <v>2.88417285714286</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="6">
+        <v>3.063407</v>
+      </c>
+      <c r="D16" s="6">
         <v>1.02831861904762</v>
       </c>
-      <c r="E16" s="5">
-        <v>3.31666666666667</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="6">
+        <v>3.33095238095238</v>
+      </c>
+      <c r="F16" s="6">
         <v>2.785</v>
       </c>
       <c r="G16" s="1">
@@ -2232,60 +2204,57 @@
       <c r="H16" s="1">
         <v>34</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>25.7</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9">
         <v>25.9</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="10">
         <v>12.2</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="10">
         <v>16</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="10">
         <v>1.8</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="10">
         <v>5.78</v>
       </c>
       <c r="O16">
         <v>14.1199126709507</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="10">
         <v>10</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="10">
         <v>14.1</v>
       </c>
-      <c r="R16" s="8">
-        <v>1.28517727272727</v>
-      </c>
-      <c r="S16" s="5">
-        <v>2.75116086956522</v>
-      </c>
-      <c r="T16" s="5">
-        <v>2.60552727272727</v>
-      </c>
-    </row>
-    <row r="17" ht="17.25" spans="1:20">
+      <c r="R16" s="10">
+        <v>1.14667777777778</v>
+      </c>
+      <c r="S16" s="6">
+        <v>2.49618333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
         <v>8.2765</v>
       </c>
-      <c r="C17" s="5">
-        <v>3.063407</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="6">
+        <v>3.14855136363636</v>
+      </c>
+      <c r="D17" s="6">
         <v>1.0377179047619</v>
       </c>
-      <c r="E17" s="5">
-        <v>3.33095238095238</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17" s="6">
+        <v>3.36318181818182</v>
+      </c>
+      <c r="F17" s="6">
         <v>3.00258064516129</v>
       </c>
       <c r="G17" s="1">
@@ -2294,60 +2263,57 @@
       <c r="H17" s="1">
         <v>33.2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="9">
         <v>26.4</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <v>24.3</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="10">
         <v>12.8</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="10">
         <v>16.6</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="10">
         <v>1.8</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="10">
         <v>5.9</v>
       </c>
       <c r="O17">
         <v>13.7029559981897</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="10">
         <v>10.4</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="10">
         <v>14.6</v>
       </c>
-      <c r="R17" s="8">
-        <v>1.14667777777778</v>
-      </c>
-      <c r="S17" s="5">
-        <v>2.60552727272727</v>
-      </c>
-      <c r="T17" s="5">
-        <v>2.49618333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="17.25" spans="1:20">
+      <c r="R17" s="10">
+        <v>1.09631363636364</v>
+      </c>
+      <c r="S17" s="6">
+        <v>2.22345</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4">
-        <v>8.2765</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3.14855136363636</v>
-      </c>
-      <c r="D18" s="5">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8.2223</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.32474857142857</v>
+      </c>
+      <c r="D18" s="6">
         <v>1.04866822727273</v>
       </c>
-      <c r="E18" s="5">
-        <v>3.36318181818182</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="6">
+        <v>3.641</v>
+      </c>
+      <c r="F18" s="6">
         <v>3.03566666666667</v>
       </c>
       <c r="G18" s="1">
@@ -2356,60 +2322,57 @@
       <c r="H18" s="1">
         <v>32.7</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="9">
         <v>27.1</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="9">
         <v>23.5</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="10">
         <v>12.9</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="10">
         <v>16.8</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="10">
         <v>1.6</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="6">
         <v>5.2</v>
       </c>
       <c r="O18">
         <v>14.2290374224535</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="10">
         <v>11.25</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="10">
         <v>15.67</v>
       </c>
-      <c r="R18" s="8">
-        <v>1.09631363636364</v>
-      </c>
-      <c r="S18" s="5">
-        <v>2.49618333333333</v>
-      </c>
-      <c r="T18" s="5">
-        <v>2.22345</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:20">
+      <c r="R18" s="10">
+        <v>1.19310952380952</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1.81206666666667</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4">
-        <v>8.2223</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3.32474857142857</v>
-      </c>
-      <c r="D19" s="5">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5">
+        <v>8.1019</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3.544405</v>
+      </c>
+      <c r="D19" s="6">
         <v>1.0545376</v>
       </c>
-      <c r="E19" s="5">
-        <v>3.641</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="6">
+        <v>3.87217391304348</v>
+      </c>
+      <c r="F19" s="6">
         <v>3.26258064516129</v>
       </c>
       <c r="G19" s="1">
@@ -2418,60 +2381,57 @@
       <c r="H19" s="1">
         <v>32</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="9">
         <v>27.2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="9">
         <v>23.5</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="10">
         <v>12.7</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="10">
         <v>16.1</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="10">
         <v>1.8</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="6">
         <v>5.2</v>
       </c>
       <c r="O19">
         <v>14.2066144560283</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="10">
         <v>11</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="10">
         <v>16.3</v>
       </c>
-      <c r="R19" s="8">
-        <v>1.19310952380952</v>
-      </c>
-      <c r="S19" s="5">
-        <v>2.22345</v>
-      </c>
-      <c r="T19" s="5">
-        <v>1.81206666666667</v>
-      </c>
-    </row>
-    <row r="20" ht="17.25" spans="1:20">
+      <c r="R19" s="10">
+        <v>1.2331</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1.5935347826087</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4">
-        <v>8.1019</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3.544405</v>
-      </c>
-      <c r="D20" s="5">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8.0922</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.721705</v>
+      </c>
+      <c r="D20" s="6">
         <v>1.05542717391304</v>
       </c>
-      <c r="E20" s="5">
-        <v>3.87217391304348</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E20" s="6">
+        <v>3.8452380952381</v>
+      </c>
+      <c r="F20" s="6">
         <v>3.49967741935484</v>
       </c>
       <c r="G20" s="1">
@@ -2480,60 +2440,57 @@
       <c r="H20" s="1">
         <v>32.2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="9">
         <v>27.4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="9">
         <v>22.3</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="10">
         <v>12.5</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="6">
         <v>16</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="10">
         <v>1.3</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="6">
         <v>5.3</v>
       </c>
       <c r="O20">
         <v>14.3961261765303</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="10">
         <v>11.5</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="10">
         <v>17.34</v>
       </c>
-      <c r="R20" s="8">
-        <v>1.2331</v>
-      </c>
-      <c r="S20" s="5">
-        <v>1.81206666666667</v>
-      </c>
-      <c r="T20" s="5">
-        <v>1.5935347826087</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:20">
+      <c r="R20" s="10">
+        <v>1.19061363636364</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1.42160909090909</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4">
-        <v>8.0922</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3.721705</v>
-      </c>
-      <c r="D21" s="5">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8.0889</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.88398857142857</v>
+      </c>
+      <c r="D21" s="6">
         <v>1.05325442857143</v>
       </c>
-      <c r="E21" s="5">
-        <v>3.8452380952381</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21" s="6">
+        <v>4.1755</v>
+      </c>
+      <c r="F21" s="6">
         <v>3.623</v>
       </c>
       <c r="G21" s="1">
@@ -2542,60 +2499,57 @@
       <c r="H21" s="1">
         <v>31.3</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="9">
         <v>27.7</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="9">
         <v>22.2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="10">
         <v>12.7</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="6">
         <v>16.5</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="10">
         <v>0.9</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="6">
         <v>4.5</v>
       </c>
       <c r="O21">
         <v>15.6797689215036</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="10">
         <v>11.64</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="10">
         <v>17.92</v>
       </c>
-      <c r="R21" s="8">
-        <v>1.19061363636364</v>
-      </c>
-      <c r="S21" s="5">
-        <v>1.5935347826087</v>
-      </c>
-      <c r="T21" s="5">
-        <v>1.42160909090909</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" spans="1:20">
+      <c r="R21" s="10">
+        <v>1.11968888888889</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1.42080555555556</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4">
-        <v>8.0889</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3.88398857142857</v>
-      </c>
-      <c r="D22" s="5">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8.084</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4.06545545454545</v>
+      </c>
+      <c r="D22" s="6">
         <v>1.03243133333333</v>
       </c>
-      <c r="E22" s="5">
-        <v>4.1755</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="6">
+        <v>4.334</v>
+      </c>
+      <c r="F22" s="6">
         <v>3.77935483870968</v>
       </c>
       <c r="G22" s="1">
@@ -2604,60 +2558,57 @@
       <c r="H22" s="1">
         <v>31.1</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9">
         <v>27.6</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <v>21.6</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="10">
         <v>12.8</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="6">
         <v>16.1</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="10">
         <v>1.2</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="6">
         <v>4</v>
       </c>
       <c r="O22">
         <v>14.93367731886</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="10">
         <v>12.08</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="10">
         <v>17.99</v>
       </c>
-      <c r="R22" s="8">
-        <v>1.11968888888889</v>
-      </c>
-      <c r="S22" s="5">
-        <v>1.42160909090909</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1.42080555555556</v>
-      </c>
-    </row>
-    <row r="23" ht="17.25" spans="1:20">
+      <c r="R22" s="10">
+        <v>1.18567727272727</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1.63432272727273</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="4">
-        <v>8.084</v>
-      </c>
-      <c r="C23" s="5">
-        <v>4.06545545454545</v>
-      </c>
-      <c r="D23" s="5">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8.0759</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4.2973135</v>
+      </c>
+      <c r="D23" s="6">
         <v>1.06952495238095</v>
       </c>
-      <c r="E23" s="5">
-        <v>4.334</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="6">
+        <v>4.35285714285714</v>
+      </c>
+      <c r="F23" s="6">
         <v>3.999</v>
       </c>
       <c r="G23" s="1">
@@ -2666,60 +2617,57 @@
       <c r="H23" s="1">
         <v>29.7</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="9">
         <v>27.8</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="9">
         <v>22.2</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="10">
         <v>12.4</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="6">
         <v>16.6</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="10">
         <v>1.3</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="6">
         <v>3.2</v>
       </c>
       <c r="O23">
         <v>14.9798468748192</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="10">
         <v>12.7</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="10">
         <v>18.3</v>
       </c>
-      <c r="R23" s="8">
-        <v>1.18567727272727</v>
-      </c>
-      <c r="S23" s="5">
-        <v>1.42080555555556</v>
-      </c>
-      <c r="T23" s="5">
-        <v>1.63432272727273</v>
-      </c>
-    </row>
-    <row r="24" ht="17.25" spans="1:20">
+      <c r="R23" s="10">
+        <v>1.5635</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1.83585652173913</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4">
-        <v>8.0759</v>
-      </c>
-      <c r="C24" s="5">
-        <v>4.2973135</v>
-      </c>
-      <c r="D24" s="5">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5">
+        <v>8.0664</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4.38714476190476</v>
+      </c>
+      <c r="D24" s="6">
         <v>1.08277947619048</v>
       </c>
-      <c r="E24" s="5">
-        <v>4.35285714285714</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24" s="6">
+        <v>4.445</v>
+      </c>
+      <c r="F24" s="6">
         <v>4.15709677419355</v>
       </c>
       <c r="G24" s="1">
@@ -2728,60 +2676,57 @@
       <c r="H24" s="1">
         <v>28.4</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="9">
         <v>27.2</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="9">
         <v>20.9</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="10">
         <v>12.5</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="6">
         <v>16.5</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="10">
         <v>1.6</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="6">
         <v>3.2</v>
       </c>
       <c r="O24">
         <v>14.2219357529455</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="10">
         <v>11.78</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="10">
         <v>17.57</v>
       </c>
-      <c r="R24" s="8">
-        <v>1.5635</v>
-      </c>
-      <c r="S24" s="5">
-        <v>1.63432272727273</v>
-      </c>
-      <c r="T24" s="5">
-        <v>1.83585652173913</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" spans="1:20">
+      <c r="R24" s="10">
+        <v>1.67448888888889</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1.64278947368421</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="4">
-        <v>8.0664</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4.38714476190476</v>
-      </c>
-      <c r="D25" s="5">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <v>8.0493</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4.5581255</v>
+      </c>
+      <c r="D25" s="6">
         <v>1.0872482</v>
       </c>
-      <c r="E25" s="5">
-        <v>4.445</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25" s="6">
+        <v>4.68473684210526</v>
+      </c>
+      <c r="F25" s="6">
         <v>4.28516129032258</v>
       </c>
       <c r="G25" s="1">
@@ -2790,60 +2735,57 @@
       <c r="H25" s="1">
         <v>28.1</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="9">
         <v>26.6</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="9">
         <v>19.7</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="10">
         <v>15.5</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="6">
         <v>12.6</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="10">
         <v>1.9</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="6">
         <v>3.05</v>
       </c>
       <c r="O25">
         <v>15.241498849118</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="10">
         <v>10.63</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="10">
         <v>19.21</v>
       </c>
-      <c r="R25" s="8">
-        <v>1.67448888888889</v>
-      </c>
-      <c r="S25" s="5">
-        <v>1.83585652173913</v>
-      </c>
-      <c r="T25" s="5">
-        <v>1.64278947368421</v>
-      </c>
-    </row>
-    <row r="26" ht="17.25" spans="1:20">
+      <c r="R25" s="10">
+        <v>1.39283888888889</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1.68635555555556</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4">
-        <v>8.0493</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4.5581255</v>
-      </c>
-      <c r="D26" s="5">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5">
+        <v>8.035</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4.67500130434783</v>
+      </c>
+      <c r="D26" s="6">
         <v>1.09711863157895</v>
       </c>
-      <c r="E26" s="5">
-        <v>4.68473684210526</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="E26" s="6">
+        <v>4.77347826086957</v>
+      </c>
+      <c r="F26" s="6">
         <v>4.49142857142857</v>
       </c>
       <c r="G26" s="1">
@@ -2852,60 +2794,57 @@
       <c r="H26" s="1">
         <v>25.5</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="9">
         <v>26.6</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="9">
         <v>19.7</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="10">
         <v>9.4</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="6">
         <v>20.1</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="10">
         <v>0.9</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="6">
         <v>3.01</v>
       </c>
       <c r="O26">
         <v>15.6069847105021</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="10">
         <v>12.4</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="10">
         <v>18.8</v>
       </c>
-      <c r="R26" s="8">
-        <v>1.39283888888889</v>
-      </c>
-      <c r="S26" s="5">
-        <v>1.64278947368421</v>
-      </c>
-      <c r="T26" s="5">
-        <v>1.68635555555556</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:20">
+      <c r="R26" s="10">
+        <v>1.48279130434783</v>
+      </c>
+      <c r="S26" s="6">
+        <v>1.69857826086956</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4">
-        <v>8.035</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4.67500130434783</v>
-      </c>
-      <c r="D27" s="5">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5">
+        <v>8.0156</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4.83784944444444</v>
+      </c>
+      <c r="D27" s="6">
         <v>1.114445</v>
       </c>
-      <c r="E27" s="5">
-        <v>4.77347826086957</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="6">
+        <v>4.89736842105263</v>
+      </c>
+      <c r="F27" s="6">
         <v>4.58935483870968</v>
       </c>
       <c r="G27" s="1">
@@ -2914,60 +2853,57 @@
       <c r="H27" s="1">
         <v>26.6</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <v>29.8</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="9">
         <v>20.2</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="10">
         <v>13.5</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="6">
         <v>17.8</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="10">
         <v>0.8</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="6">
         <v>2.49</v>
       </c>
       <c r="O27">
         <v>16.8040941397162</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="10">
         <v>12.7</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="10">
         <v>18.8</v>
       </c>
-      <c r="R27" s="8">
-        <v>1.48279130434783</v>
-      </c>
-      <c r="S27" s="5">
-        <v>1.68635555555556</v>
-      </c>
-      <c r="T27" s="5">
-        <v>1.69857826086956</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" spans="1:20">
+      <c r="R27" s="10">
+        <v>1.69011818181818</v>
+      </c>
+      <c r="S27" s="6">
+        <v>1.70267727272727</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="4">
-        <v>8.0156</v>
-      </c>
-      <c r="C28" s="5">
-        <v>4.83784944444444</v>
-      </c>
-      <c r="D28" s="5">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8.0153</v>
+      </c>
+      <c r="C28" s="6">
+        <v>5.05488333333333</v>
+      </c>
+      <c r="D28" s="6">
         <v>1.12346752631579</v>
       </c>
-      <c r="E28" s="5">
-        <v>4.89736842105263</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E28" s="6">
+        <v>4.995</v>
+      </c>
+      <c r="F28" s="6">
         <v>4.79033333333333</v>
       </c>
       <c r="G28" s="1">
@@ -2976,60 +2912,57 @@
       <c r="H28" s="1">
         <v>25.8</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="9">
         <v>29.6</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="9">
         <v>21.3</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="10">
         <v>13.6</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="6">
         <v>16.6</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="10">
         <v>1.2</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="6">
         <v>1.87</v>
       </c>
       <c r="O28">
         <v>17.2508234444795</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="10">
         <v>12.5</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="10">
         <v>18.9</v>
       </c>
-      <c r="R28" s="8">
-        <v>1.69011818181818</v>
-      </c>
-      <c r="S28" s="5">
-        <v>1.69857826086956</v>
-      </c>
-      <c r="T28" s="5">
-        <v>1.70267727272727</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:20">
+      <c r="R28" s="10">
+        <v>1.68232777777778</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1.73098333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="4">
-        <v>8.0153</v>
-      </c>
-      <c r="C29" s="5">
-        <v>5.05488333333333</v>
-      </c>
-      <c r="D29" s="5">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8.0067</v>
+      </c>
+      <c r="C29" s="6">
+        <v>5.16934727272727</v>
+      </c>
+      <c r="D29" s="6">
         <v>1.13338781818182</v>
       </c>
-      <c r="E29" s="5">
-        <v>4.995</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29" s="6">
+        <v>5.155</v>
+      </c>
+      <c r="F29" s="6">
         <v>4.94032258064516</v>
       </c>
       <c r="G29" s="1">
@@ -3038,60 +2971,57 @@
       <c r="H29" s="1">
         <v>25.7</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="9">
         <v>30.3</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="9">
         <v>21.8</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="10">
         <v>14.2</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="6">
         <v>17.9</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="10">
         <v>1.4</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="6">
         <v>2.43</v>
       </c>
       <c r="O29">
         <v>17.9116092272739</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="10">
         <v>14.01</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="10">
         <v>19.1</v>
       </c>
-      <c r="R29" s="8">
-        <v>1.68232777777778</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1.70267727272727</v>
-      </c>
-      <c r="T29" s="5">
-        <v>1.73098333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="17.25" spans="1:20">
+      <c r="R29" s="10">
+        <v>1.96765454545454</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1.92282727272727</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="4">
-        <v>8.0067</v>
-      </c>
-      <c r="C30" s="5">
-        <v>5.16934727272727</v>
-      </c>
-      <c r="D30" s="5">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7.9912</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5.31611714285714</v>
+      </c>
+      <c r="D30" s="6">
         <v>1.09979654545455</v>
       </c>
-      <c r="E30" s="5">
-        <v>5.155</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30" s="6">
+        <v>5.2175</v>
+      </c>
+      <c r="F30" s="6">
         <v>4.991</v>
       </c>
       <c r="G30" s="1">
@@ -3100,60 +3030,57 @@
       <c r="H30" s="1">
         <v>25.2</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9">
         <v>31.3</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="9">
         <v>24.2</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="10">
         <v>13.9</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>19.5</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="10">
         <v>1.5</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="6">
         <v>3.52</v>
       </c>
       <c r="O30">
         <v>17.155671182239</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="10">
         <v>13.9</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="10">
         <v>18.43</v>
       </c>
-      <c r="R30" s="8">
-        <v>1.96765454545454</v>
-      </c>
-      <c r="S30" s="5">
-        <v>1.73098333333333</v>
-      </c>
-      <c r="T30" s="5">
-        <v>1.92282727272727</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" spans="1:20">
+      <c r="R30" s="10">
+        <v>2.29583809523809</v>
+      </c>
+      <c r="S30" s="6">
+        <v>2.05927619047619</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="4">
-        <v>7.9912</v>
-      </c>
-      <c r="C31" s="5">
-        <v>5.31611714285714</v>
-      </c>
-      <c r="D31" s="5">
+        <v>48</v>
+      </c>
+      <c r="B31" s="5">
+        <v>7.9733</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5.32184863636364</v>
+      </c>
+      <c r="D31" s="6">
         <v>1.1032526</v>
       </c>
-      <c r="E31" s="5">
-        <v>5.2175</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31" s="6">
+        <v>5.08260869565217</v>
+      </c>
+      <c r="F31" s="6">
         <v>5.23516129032258</v>
       </c>
       <c r="G31" s="1">
@@ -3162,60 +3089,57 @@
       <c r="H31" s="1">
         <v>24.8</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="9">
         <v>30.5</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="9">
         <v>24</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="10">
         <v>13.7</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="6">
         <v>16.7</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="10">
         <v>1</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="6">
         <v>3.58</v>
       </c>
       <c r="O31">
         <v>17.8183009390697</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="10">
         <v>15.3</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="10">
         <v>18.4</v>
       </c>
-      <c r="R31" s="8">
-        <v>2.29583809523809</v>
-      </c>
-      <c r="S31" s="5">
-        <v>1.92282727272727</v>
-      </c>
-      <c r="T31" s="5">
-        <v>2.05927619047619</v>
-      </c>
-    </row>
-    <row r="32" ht="17.25" spans="1:20">
+      <c r="R31" s="10">
+        <v>2.44670869565217</v>
+      </c>
+      <c r="S31" s="6">
+        <v>2.13169565217391</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="4">
-        <v>7.9733</v>
-      </c>
-      <c r="C32" s="5">
-        <v>5.32184863636364</v>
-      </c>
-      <c r="D32" s="5">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7.9368</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5.31157952380952</v>
+      </c>
+      <c r="D32" s="6">
         <v>1.12573539130435</v>
       </c>
-      <c r="E32" s="5">
-        <v>5.08260869565217</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="6">
+        <v>4.9745</v>
+      </c>
+      <c r="F32" s="6">
         <v>5.24645161290323</v>
       </c>
       <c r="G32" s="1">
@@ -3224,60 +3148,57 @@
       <c r="H32" s="1">
         <v>25.9</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="9">
         <v>29.1</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="9">
         <v>24</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="10">
         <v>13.8</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="6">
         <v>15.7</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="10">
         <v>1.3</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="6">
         <v>3.4</v>
       </c>
       <c r="O32">
         <v>18.2040883456613</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="10">
         <v>15.6</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="10">
         <v>17.9</v>
       </c>
-      <c r="R32" s="8">
-        <v>2.44670869565217</v>
-      </c>
-      <c r="S32" s="5">
-        <v>2.05927619047619</v>
-      </c>
-      <c r="T32" s="5">
-        <v>2.13169565217391</v>
-      </c>
-    </row>
-    <row r="33" ht="17.25" spans="1:20">
+      <c r="R32" s="10">
+        <v>2.17011818181818</v>
+      </c>
+      <c r="S32" s="6">
+        <v>2.01994545454546</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="4">
-        <v>7.9368</v>
-      </c>
-      <c r="C33" s="5">
-        <v>5.31157952380952</v>
-      </c>
-      <c r="D33" s="5">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7.9032</v>
+      </c>
+      <c r="C33" s="6">
+        <v>5.30523363636364</v>
+      </c>
+      <c r="D33" s="6">
         <v>1.1533599</v>
       </c>
-      <c r="E33" s="5">
-        <v>4.9745</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E33" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="F33" s="6">
         <v>5.25466666666667</v>
       </c>
       <c r="G33" s="1">
@@ -3286,60 +3207,57 @@
       <c r="H33" s="1">
         <v>26.5</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="9">
         <v>28.2</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="9">
         <v>24.3</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="10">
         <v>13.9</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="6">
         <v>16.1</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="10">
         <v>1.5</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="6">
         <v>3.5</v>
       </c>
       <c r="O33">
         <v>16.4900796328789</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="10">
         <v>15.7</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="10">
         <v>16.83</v>
       </c>
-      <c r="R33" s="8">
-        <v>2.17011818181818</v>
-      </c>
-      <c r="S33" s="5">
-        <v>2.13169565217391</v>
-      </c>
-      <c r="T33" s="5">
-        <v>2.01994545454546</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" spans="1:20">
+      <c r="R33" s="10">
+        <v>2.35068888888889</v>
+      </c>
+      <c r="S33" s="6">
+        <v>2.02115</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:19">
       <c r="A34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="4">
-        <v>7.9032</v>
-      </c>
-      <c r="C34" s="5">
-        <v>5.30523363636364</v>
-      </c>
-      <c r="D34" s="5">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7.8652</v>
+      </c>
+      <c r="C34" s="6">
+        <v>5.30419318181818</v>
+      </c>
+      <c r="D34" s="6">
         <v>1.19631154545455</v>
       </c>
-      <c r="E34" s="5">
-        <v>5.01</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="E34" s="6">
+        <v>5.01095238095238</v>
+      </c>
+      <c r="F34" s="6">
         <v>5.24516129032258</v>
       </c>
       <c r="G34" s="1">
@@ -3348,60 +3266,57 @@
       <c r="H34" s="1">
         <v>26.8</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="9">
         <v>26.8</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="9">
         <v>24.1</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="10">
         <v>14.3</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="6">
         <v>14.7</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="10">
         <v>1.4</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="6">
         <v>2.9</v>
       </c>
       <c r="O34">
         <v>17.3492465503952</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="10">
         <v>16.3</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="10">
         <v>17.1</v>
       </c>
-      <c r="R34" s="8">
-        <v>2.35068888888889</v>
-      </c>
-      <c r="S34" s="5">
-        <v>2.01994545454546</v>
-      </c>
-      <c r="T34" s="5">
-        <v>2.02115</v>
-      </c>
-    </row>
-    <row r="35" ht="17.25" spans="1:20">
+      <c r="R34" s="10">
+        <v>3.18096363636364</v>
+      </c>
+      <c r="S34" s="6">
+        <v>2.06614090909091</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:19">
       <c r="A35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="4">
-        <v>7.8652</v>
-      </c>
-      <c r="C35" s="5">
-        <v>5.30419318181818</v>
-      </c>
-      <c r="D35" s="5">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7.8238</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5.31394526315789</v>
+      </c>
+      <c r="D35" s="6">
         <v>1.21851542857143</v>
       </c>
-      <c r="E35" s="5">
-        <v>5.01095238095238</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="E35" s="6">
+        <v>4.9415</v>
+      </c>
+      <c r="F35" s="6">
         <v>5.24566666666667</v>
       </c>
       <c r="G35" s="1">
@@ -3410,60 +3325,57 @@
       <c r="H35" s="1">
         <v>27.5</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="9">
         <v>26.6</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="9">
         <v>24</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="10">
         <v>14.1</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="6">
         <v>14.9</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="10">
         <v>1.9</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="6">
         <v>2.78</v>
       </c>
       <c r="O35">
         <v>17.3530916379433</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="10">
         <v>16.8</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="10">
         <v>16.8</v>
       </c>
-      <c r="R35" s="8">
-        <v>3.18096363636364</v>
-      </c>
-      <c r="S35" s="5">
-        <v>2.02115</v>
-      </c>
-      <c r="T35" s="5">
-        <v>2.06614090909091</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" spans="1:20">
+      <c r="R35" s="10">
+        <v>2.1199347826087</v>
+      </c>
+      <c r="S35" s="6">
+        <v>2.09778260869565</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:19">
       <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="4">
-        <v>7.8238</v>
-      </c>
-      <c r="C36" s="5">
-        <v>5.31394526315789</v>
-      </c>
-      <c r="D36" s="5">
+        <v>53</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7.7898</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5.30517272727273</v>
+      </c>
+      <c r="D36" s="6">
         <v>1.23776185</v>
       </c>
-      <c r="E36" s="5">
-        <v>4.9415</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36" s="6">
+        <v>5.05714285714286</v>
+      </c>
+      <c r="F36" s="6">
         <v>5.23806451612903</v>
       </c>
       <c r="G36" s="1">
@@ -3472,60 +3384,57 @@
       <c r="H36" s="1">
         <v>27.2</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="9">
         <v>24.3</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="9">
         <v>22.1</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="10">
         <v>14.6</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="6">
         <v>14.7</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="10">
         <v>2.8</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="6">
         <v>3.1</v>
       </c>
       <c r="O36">
         <v>17.7161564442379</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="10">
         <v>17.48</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="10">
         <v>16.94</v>
       </c>
-      <c r="R36" s="8">
-        <v>2.1199347826087</v>
-      </c>
-      <c r="S36" s="5">
-        <v>2.06614090909091</v>
-      </c>
-      <c r="T36" s="5">
-        <v>2.09778260869565</v>
-      </c>
-    </row>
-    <row r="37" ht="17.25" spans="1:20">
+      <c r="R36" s="10">
+        <v>1.670785</v>
+      </c>
+      <c r="S36" s="6">
+        <v>2.060385</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:19">
       <c r="A37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="4">
-        <v>7.7898</v>
-      </c>
-      <c r="C37" s="5">
-        <v>5.30517272727273</v>
-      </c>
-      <c r="D37" s="5">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7.7546</v>
+      </c>
+      <c r="C37" s="6">
+        <v>5.305565</v>
+      </c>
+      <c r="D37" s="6">
         <v>1.2512891</v>
       </c>
-      <c r="E37" s="5">
-        <v>5.05714285714286</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="E37" s="6">
+        <v>5.05368421052632</v>
+      </c>
+      <c r="F37" s="6">
         <v>5.24838709677419</v>
       </c>
       <c r="G37" s="1">
@@ -3534,60 +3443,57 @@
       <c r="H37" s="1">
         <v>33.2445</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="9">
         <v>23.4</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="9">
         <v>24.3</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="10">
         <v>12.7</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="6">
         <v>24.71</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="10">
         <v>2.2</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="6">
         <v>3.3</v>
       </c>
       <c r="O37">
         <v>17.4997675161425</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="10">
         <v>20.21</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="10">
         <v>15.93</v>
       </c>
-      <c r="R37" s="8">
-        <v>1.670785</v>
-      </c>
-      <c r="S37" s="5">
-        <v>2.09778260869565</v>
-      </c>
-      <c r="T37" s="5">
-        <v>2.060385</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="1:20">
+      <c r="R37" s="10">
+        <v>2.73202352941176</v>
+      </c>
+      <c r="S37" s="6">
+        <v>2.132</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:19">
       <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="4">
-        <v>7.7546</v>
-      </c>
-      <c r="C38" s="5">
-        <v>5.305565</v>
-      </c>
-      <c r="D38" s="5">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7.7391</v>
+      </c>
+      <c r="C38" s="6">
+        <v>5.315865</v>
+      </c>
+      <c r="D38" s="6">
         <v>1.26314773684211</v>
       </c>
-      <c r="E38" s="5">
-        <v>5.05368421052632</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="E38" s="6">
+        <v>4.92045454545455</v>
+      </c>
+      <c r="F38" s="6">
         <v>5.25892857142857</v>
       </c>
       <c r="G38" s="1">
@@ -3596,60 +3502,57 @@
       <c r="H38" s="1">
         <v>41.5734</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="9">
         <v>23.4</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="9">
         <v>24.3</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="10">
         <v>16.9</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="6">
         <v>12.6</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="10">
         <v>2.7</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="6">
         <v>2.6</v>
       </c>
       <c r="O38">
         <v>17.9181421791814</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="10">
         <v>21</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q38" s="10">
         <v>17.8</v>
       </c>
-      <c r="R38" s="8">
-        <v>2.73202352941176</v>
-      </c>
-      <c r="S38" s="5">
-        <v>2.060385</v>
-      </c>
-      <c r="T38" s="5">
-        <v>2.132</v>
-      </c>
-    </row>
-    <row r="39" ht="17.25" spans="1:20">
+      <c r="R38" s="10">
+        <v>1.68333181818182</v>
+      </c>
+      <c r="S38" s="6">
+        <v>2.17737727272727</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:19">
       <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="4">
-        <v>7.7391</v>
-      </c>
-      <c r="C39" s="5">
-        <v>5.315865</v>
-      </c>
-      <c r="D39" s="5">
+        <v>56</v>
+      </c>
+      <c r="B39" s="5">
+        <v>7.7247</v>
+      </c>
+      <c r="C39" s="6">
+        <v>5.31866157894737</v>
+      </c>
+      <c r="D39" s="6">
         <v>1.22685336363636</v>
       </c>
-      <c r="E39" s="5">
-        <v>4.92045454545455</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="E39" s="6">
+        <v>4.93238095238095</v>
+      </c>
+      <c r="F39" s="6">
         <v>5.25677419354839</v>
       </c>
       <c r="G39" s="1">
@@ -3658,60 +3561,57 @@
       <c r="H39" s="1">
         <v>27.8826</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="9">
         <v>25.3</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="9">
         <v>26.9</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="10">
         <v>15.3</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="6">
         <v>17.6</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="10">
         <v>3.3</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="6">
         <v>2.7</v>
       </c>
       <c r="O39">
         <v>16.9436886543124</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="10">
         <v>19.8</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="10">
         <v>17.3</v>
       </c>
-      <c r="R39" s="8">
-        <v>1.68333181818182</v>
-      </c>
-      <c r="S39" s="5">
-        <v>2.132</v>
-      </c>
-      <c r="T39" s="5">
-        <v>2.17737727272727</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="1:20">
+      <c r="R39" s="10">
+        <v>2.91814347826087</v>
+      </c>
+      <c r="S39" s="6">
+        <v>2.28394782608696</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:19">
       <c r="A40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="4">
-        <v>7.7247</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5.31866157894737</v>
-      </c>
-      <c r="D40" s="5">
+        <v>57</v>
+      </c>
+      <c r="B40" s="5">
+        <v>7.6704</v>
+      </c>
+      <c r="C40" s="6">
+        <v>5.3160319047619</v>
+      </c>
+      <c r="D40" s="6">
         <v>1.2754804</v>
       </c>
-      <c r="E40" s="5">
-        <v>4.93238095238095</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="E40" s="6">
+        <v>4.90909090909091</v>
+      </c>
+      <c r="F40" s="6">
         <v>5.24966666666667</v>
       </c>
       <c r="G40" s="1">
@@ -3720,60 +3620,57 @@
       <c r="H40" s="1">
         <v>27.5598</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="9">
         <v>25.5</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="9">
         <v>27.4</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="10">
         <v>15.5</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="6">
         <v>17.4</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="10">
         <v>3</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="6">
         <v>2.9</v>
       </c>
       <c r="O40">
         <v>17.7959155401115</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="10">
         <v>20</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="10">
         <v>17.1</v>
       </c>
-      <c r="R40" s="8">
-        <v>2.91814347826087</v>
-      </c>
-      <c r="S40" s="5">
-        <v>2.17737727272727</v>
-      </c>
-      <c r="T40" s="5">
-        <v>2.28394782608696</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" spans="1:20">
+      <c r="R40" s="10">
+        <v>2.47623333333333</v>
+      </c>
+      <c r="S40" s="6">
+        <v>2.37521666666667</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:19">
       <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="4">
-        <v>7.6704</v>
-      </c>
-      <c r="C41" s="5">
-        <v>5.3160319047619</v>
-      </c>
-      <c r="D41" s="5">
+        <v>58</v>
+      </c>
+      <c r="B41" s="5">
+        <v>7.6296</v>
+      </c>
+      <c r="C41" s="6">
+        <v>5.32495285714286</v>
+      </c>
+      <c r="D41" s="6">
         <v>1.34077563636364</v>
       </c>
-      <c r="E41" s="5">
-        <v>4.90909090909091</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="E41" s="6">
+        <v>4.96238095238095</v>
+      </c>
+      <c r="F41" s="6">
         <v>5.25354838709677</v>
       </c>
       <c r="G41" s="1">
@@ -3782,60 +3679,57 @@
       <c r="H41" s="1">
         <v>27.8032</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="9">
         <v>25.9</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="9">
         <v>27.5</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="10">
         <v>15.9</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="6">
         <v>18.1</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="10">
         <v>3.4</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="6">
         <v>2.8</v>
       </c>
       <c r="O41">
         <v>17.5552251486831</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="10">
         <v>19.28</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="10">
         <v>16.74</v>
       </c>
-      <c r="R41" s="8">
-        <v>2.47623333333333</v>
-      </c>
-      <c r="S41" s="5">
-        <v>2.28394782608696</v>
-      </c>
-      <c r="T41" s="5">
-        <v>2.37521666666667</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" spans="1:20">
+      <c r="R41" s="10">
+        <v>2.7029380952381</v>
+      </c>
+      <c r="S41" s="6">
+        <v>2.58678095238095</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:19">
       <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="4">
-        <v>7.6296</v>
-      </c>
-      <c r="C42" s="5">
-        <v>5.32495285714286</v>
-      </c>
-      <c r="D42" s="5">
+        <v>59</v>
+      </c>
+      <c r="B42" s="5">
+        <v>7.5805</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5.31710454545454</v>
+      </c>
+      <c r="D42" s="6">
         <v>1.34802123809524</v>
       </c>
-      <c r="E42" s="5">
-        <v>4.96238095238095</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="E42" s="6">
+        <v>4.96428571428571</v>
+      </c>
+      <c r="F42" s="6">
         <v>5.254</v>
       </c>
       <c r="G42" s="1">
@@ -3844,60 +3738,57 @@
       <c r="H42" s="1">
         <v>27.6922</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="9">
         <v>26.7</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="9">
         <v>28.5</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="10">
         <v>16</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="6">
         <v>19.4</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="10">
         <v>4.4</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="6">
         <v>2.49</v>
       </c>
       <c r="O42">
         <v>18.4989401512574</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="10">
         <v>20.92</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="10">
         <v>17.06</v>
       </c>
-      <c r="R42" s="8">
-        <v>2.7029380952381</v>
-      </c>
-      <c r="S42" s="5">
-        <v>2.37521666666667</v>
-      </c>
-      <c r="T42" s="5">
-        <v>2.58678095238095</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="1:20">
+      <c r="R42" s="10">
+        <v>2.68981818181818</v>
+      </c>
+      <c r="S42" s="6">
+        <v>2.83183181818182</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:19">
       <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="4">
-        <v>7.5805</v>
-      </c>
-      <c r="C43" s="5">
-        <v>5.31710454545454</v>
-      </c>
-      <c r="D43" s="5">
+        <v>60</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.5753</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5.49261409090909</v>
+      </c>
+      <c r="D43" s="6">
         <v>1.36778947619048</v>
       </c>
-      <c r="E43" s="5">
-        <v>4.96428571428571</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E43" s="6">
+        <v>4.47217391304348</v>
+      </c>
+      <c r="F43" s="6">
         <v>5.25838709677419</v>
       </c>
       <c r="G43" s="1">
@@ -3906,60 +3797,57 @@
       <c r="H43" s="1">
         <v>28.73</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="9">
         <v>26.6</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="9">
         <v>28.9</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="10">
         <v>16.4</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="6">
         <v>18</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="10">
         <v>5.6</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="6">
         <v>2.4</v>
       </c>
       <c r="O43">
         <v>18.6579918070771</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="10">
         <v>20.9</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="10">
         <v>18.5</v>
       </c>
-      <c r="R43" s="8">
-        <v>2.68981818181818</v>
-      </c>
-      <c r="S43" s="5">
-        <v>2.58678095238095</v>
-      </c>
-      <c r="T43" s="5">
-        <v>2.83183181818182</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" spans="1:20">
+      <c r="R43" s="10">
+        <v>2.22146956521739</v>
+      </c>
+      <c r="S43" s="6">
+        <v>2.93940869565217</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="1:19">
       <c r="A44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="4">
-        <v>7.5753</v>
-      </c>
-      <c r="C44" s="5">
-        <v>5.49261409090909</v>
-      </c>
-      <c r="D44" s="5">
+        <v>61</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.5258</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5.3531565</v>
+      </c>
+      <c r="D44" s="6">
         <v>1.3239712173913</v>
       </c>
-      <c r="E44" s="5">
-        <v>4.47217391304348</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="E44" s="6">
+        <v>4.13684210526316</v>
+      </c>
+      <c r="F44" s="6">
         <v>5.02225806451613</v>
       </c>
       <c r="G44" s="1">
@@ -3968,60 +3856,57 @@
       <c r="H44" s="1">
         <v>27.8337</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="9">
         <v>26.7</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="9">
         <v>29</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="10">
         <v>17.1</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="6">
         <v>17.5</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="10">
         <v>6.5</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="6">
         <v>2.6</v>
       </c>
       <c r="O44">
         <v>19.7461068372469</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="10">
         <v>22.8</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="10">
         <v>18.1</v>
       </c>
-      <c r="R44" s="8">
-        <v>2.22146956521739</v>
-      </c>
-      <c r="S44" s="5">
-        <v>2.83183181818182</v>
-      </c>
-      <c r="T44" s="5">
-        <v>2.93940869565217</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" spans="1:20">
+      <c r="R44" s="10">
+        <v>4.25269545454545</v>
+      </c>
+      <c r="S44" s="6">
+        <v>3.09104545454545</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="1:19">
       <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="4">
-        <v>7.5258</v>
-      </c>
-      <c r="C45" s="5">
-        <v>5.3531565</v>
-      </c>
-      <c r="D45" s="5">
+        <v>62</v>
+      </c>
+      <c r="B45" s="5">
+        <v>7.5012</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4.91540782608696</v>
+      </c>
+      <c r="D45" s="6">
         <v>1.35576863157895</v>
       </c>
-      <c r="E45" s="5">
-        <v>4.13684210526316</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="E45" s="6">
+        <v>4.09681818181818</v>
+      </c>
+      <c r="F45" s="6">
         <v>4.938</v>
       </c>
       <c r="G45" s="1">
@@ -4030,60 +3915,57 @@
       <c r="H45" s="1">
         <v>27.1478</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="9">
         <v>26.4</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="9">
         <v>30.3</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="10">
         <v>17</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="6">
         <v>18.9</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="10">
         <v>6.2</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="6">
         <v>2.7</v>
       </c>
       <c r="O45">
         <v>20.3273904353619</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="10">
         <v>22.07</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="10">
         <v>18.45</v>
       </c>
-      <c r="R45" s="8">
-        <v>4.25269545454545</v>
-      </c>
-      <c r="S45" s="5">
-        <v>2.93940869565217</v>
-      </c>
-      <c r="T45" s="5">
-        <v>3.09104545454545</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25" spans="1:20">
+      <c r="R45" s="10">
+        <v>3.73018888888889</v>
+      </c>
+      <c r="S45" s="6">
+        <v>3.26408333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="1:19">
       <c r="A46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="4">
-        <v>7.5012</v>
-      </c>
-      <c r="C46" s="5">
-        <v>4.91540782608696</v>
-      </c>
-      <c r="D46" s="5">
+        <v>63</v>
+      </c>
+      <c r="B46" s="5">
+        <v>7.4233</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4.71855136363636</v>
+      </c>
+      <c r="D46" s="6">
         <v>1.39012804347826</v>
       </c>
-      <c r="E46" s="5">
-        <v>4.09681818181818</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46" s="6">
+        <v>3.499</v>
+      </c>
+      <c r="F46" s="6">
         <v>4.75548387096774</v>
       </c>
       <c r="G46" s="1">
@@ -4092,60 +3974,57 @@
       <c r="H46" s="1">
         <v>26.6072</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="9">
         <v>26.9</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="9">
         <v>31.4</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="10">
         <v>18.1</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="6">
         <v>17.9</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="10">
         <v>6.5</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="6">
         <v>3.2</v>
       </c>
       <c r="O46">
         <v>21.2701838471477</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="10">
         <v>22.21</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="10">
         <v>18.47</v>
       </c>
-      <c r="R46" s="8">
-        <v>3.73018888888889</v>
-      </c>
-      <c r="S46" s="5">
-        <v>3.09104545454545</v>
-      </c>
-      <c r="T46" s="5">
-        <v>3.26408333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="17.25" spans="1:20">
+      <c r="R46" s="10">
+        <v>2.80775</v>
+      </c>
+      <c r="S46" s="6">
+        <v>3.67977272727273</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="1:19">
       <c r="A47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="4">
-        <v>7.4233</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4.71855136363636</v>
-      </c>
-      <c r="D47" s="5">
+        <v>64</v>
+      </c>
+      <c r="B47" s="5">
+        <v>7.3676</v>
+      </c>
+      <c r="C47" s="6">
+        <v>4.63447368421053</v>
+      </c>
+      <c r="D47" s="6">
         <v>1.32005776190476</v>
       </c>
-      <c r="E47" s="5">
-        <v>3.499</v>
-      </c>
-      <c r="F47" s="5">
+      <c r="E47" s="6">
+        <v>3.263</v>
+      </c>
+      <c r="F47" s="6">
         <v>4.48666666666667</v>
       </c>
       <c r="G47" s="1">
@@ -4154,60 +4033,57 @@
       <c r="H47" s="1">
         <v>26.1908</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="9">
         <v>26.8</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="9">
         <v>31.8</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="10">
         <v>18.8</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="6">
         <v>17.3</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="10">
         <v>6.9</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="6">
         <v>4.55</v>
       </c>
       <c r="O47">
         <v>21.160126632031</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="10">
         <v>21.67</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="10">
         <v>18.45</v>
       </c>
-      <c r="R47" s="8">
-        <v>2.80775</v>
-      </c>
-      <c r="S47" s="5">
-        <v>3.26408333333333</v>
-      </c>
-      <c r="T47" s="5">
-        <v>3.67977272727273</v>
-      </c>
-    </row>
-    <row r="48" ht="17.25" spans="1:20">
+      <c r="R47" s="10">
+        <v>3.11788571428571</v>
+      </c>
+      <c r="S47" s="6">
+        <v>3.6943</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="1:19">
       <c r="A48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="4">
-        <v>7.3676</v>
-      </c>
-      <c r="C48" s="5">
-        <v>4.63447368421053</v>
-      </c>
-      <c r="D48" s="5">
+        <v>65</v>
+      </c>
+      <c r="B48" s="5">
+        <v>7.2478</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4.02309681818182</v>
+      </c>
+      <c r="D48" s="6">
         <v>1.34069895</v>
       </c>
-      <c r="E48" s="5">
-        <v>3.263</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="E48" s="6">
+        <v>2.71142857142857</v>
+      </c>
+      <c r="F48" s="6">
         <v>4.24451612903226</v>
       </c>
       <c r="G48" s="1">
@@ -4216,60 +4092,57 @@
       <c r="H48" s="1">
         <v>25.7518</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="9">
         <v>25.8</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="9">
         <v>30.2</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="10">
         <v>20.2</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="6">
         <v>17.4</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="10">
         <v>6.5</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="6">
         <v>5.43</v>
       </c>
       <c r="O48">
         <v>21.0304438091948</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="10">
         <v>21.01</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="10">
         <v>16.72</v>
       </c>
-      <c r="R48" s="8">
-        <v>3.11788571428571</v>
-      </c>
-      <c r="S48" s="5">
-        <v>3.67977272727273</v>
-      </c>
-      <c r="T48" s="5">
-        <v>3.6943</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" spans="1:20">
+      <c r="R48" s="10">
+        <v>2.98128636363636</v>
+      </c>
+      <c r="S48" s="6">
+        <v>3.52563636363636</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="1:19">
       <c r="A49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="4">
-        <v>7.2478</v>
-      </c>
-      <c r="C49" s="5">
-        <v>4.02309681818182</v>
-      </c>
-      <c r="D49" s="5">
+        <v>66</v>
+      </c>
+      <c r="B49" s="5">
+        <v>7.1601</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3.14348285714286</v>
+      </c>
+      <c r="D49" s="6">
         <v>1.25381223809524</v>
       </c>
-      <c r="E49" s="5">
-        <v>2.71142857142857</v>
-      </c>
-      <c r="F49" s="5">
+      <c r="E49" s="6">
+        <v>2.0535</v>
+      </c>
+      <c r="F49" s="6">
         <v>3.94032258064516</v>
       </c>
       <c r="G49" s="1">
@@ -4278,60 +4151,57 @@
       <c r="H49" s="1">
         <v>26.75</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="9">
         <v>24.3</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="9">
         <v>32.9</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="11">
         <v>21.2</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="6">
         <v>15.4</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M49" s="12">
         <v>7.1</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="6">
         <v>6.1</v>
       </c>
       <c r="O49">
         <v>21.8900867482649</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49" s="12">
         <v>20.72</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q49" s="12">
         <v>18.94</v>
       </c>
-      <c r="R49" s="8">
-        <v>2.98128636363636</v>
-      </c>
-      <c r="S49" s="5">
-        <v>3.6943</v>
-      </c>
-      <c r="T49" s="5">
-        <v>3.52563636363636</v>
-      </c>
-    </row>
-    <row r="50" ht="17.25" spans="1:20">
+      <c r="R49" s="10">
+        <v>3.02909444444444</v>
+      </c>
+      <c r="S49" s="6">
+        <v>3.38488888888889</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="1:19">
       <c r="A50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="4">
-        <v>7.1601</v>
-      </c>
-      <c r="C50" s="5">
-        <v>3.14348285714286</v>
-      </c>
-      <c r="D50" s="5">
+        <v>67</v>
+      </c>
+      <c r="B50" s="5">
+        <v>7.0752</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2.93503368421053</v>
+      </c>
+      <c r="D50" s="6">
         <v>1.24195675</v>
       </c>
-      <c r="E50" s="5">
-        <v>2.0535</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="E50" s="6">
+        <v>1.544</v>
+      </c>
+      <c r="F50" s="6">
         <v>2.98068965517241</v>
       </c>
       <c r="G50" s="1">
@@ -4340,60 +4210,57 @@
       <c r="H50" s="1">
         <v>16.82</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="9">
         <v>24.3</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="9">
         <v>32.9</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="11">
         <v>19.1</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="6">
         <v>15.4</v>
       </c>
-      <c r="M50" s="10">
+      <c r="M50" s="12">
         <v>8.7</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="6">
         <v>6.62</v>
       </c>
       <c r="O50">
         <v>22.2214277445232</v>
       </c>
-      <c r="P50" s="10">
+      <c r="P50" s="12">
         <v>19.2</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="Q50" s="12">
         <v>17.48</v>
       </c>
-      <c r="R50" s="8">
-        <v>3.02909444444444</v>
-      </c>
-      <c r="S50" s="5">
-        <v>3.52563636363636</v>
-      </c>
-      <c r="T50" s="5">
-        <v>3.38488888888889</v>
-      </c>
-    </row>
-    <row r="51" ht="17.25" spans="1:20">
+      <c r="R50" s="10">
+        <v>2.51109523809524</v>
+      </c>
+      <c r="S50" s="6">
+        <v>3.24191904761905</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="1:19">
       <c r="A51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="4">
-        <v>7.0752</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2.93503368421053</v>
-      </c>
-      <c r="D51" s="5">
+        <v>68</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7.0007</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2.80846409090909</v>
+      </c>
+      <c r="D51" s="6">
         <v>1.2193877</v>
       </c>
-      <c r="E51" s="5">
-        <v>1.544</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="E51" s="6">
+        <v>1.73818181818182</v>
+      </c>
+      <c r="F51" s="6">
         <v>2.61032258064516</v>
       </c>
       <c r="G51" s="1">
@@ -4402,60 +4269,57 @@
       <c r="H51" s="1">
         <v>21.32</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="9">
         <v>25.9</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="9">
         <v>32.3</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="11">
         <v>21.5</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="6">
         <v>17.8</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M51" s="12">
         <v>8.3</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="6">
         <v>7.95</v>
       </c>
       <c r="O51">
         <v>21.7806369893835</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P51" s="12">
         <v>18.25</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q51" s="12">
         <v>16.29</v>
       </c>
-      <c r="R51" s="8">
-        <v>2.51109523809524</v>
-      </c>
-      <c r="S51" s="5">
-        <v>3.38488888888889</v>
-      </c>
-      <c r="T51" s="5">
-        <v>3.24191904761905</v>
-      </c>
-    </row>
-    <row r="52" ht="17.25" spans="1:20">
+      <c r="R51" s="10">
+        <v>3.0610619047619</v>
+      </c>
+      <c r="S51" s="6">
+        <v>3.1653</v>
+      </c>
+    </row>
+    <row r="52" ht="17.25" spans="1:19">
       <c r="A52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="4">
-        <v>7.0007</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2.80846409090909</v>
-      </c>
-      <c r="D52" s="5">
+        <v>69</v>
+      </c>
+      <c r="B52" s="5">
+        <v>6.9724</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2.4175315</v>
+      </c>
+      <c r="D52" s="6">
         <v>1.26566327272727</v>
       </c>
-      <c r="E52" s="5">
-        <v>1.73818181818182</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="E52" s="6">
+        <v>2.05142857142857</v>
+      </c>
+      <c r="F52" s="6">
         <v>2.27833333333333</v>
       </c>
       <c r="G52" s="1">
@@ -4464,60 +4328,57 @@
       <c r="H52" s="1">
         <v>21.53</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="9">
         <v>25.7</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="9">
         <v>32.1</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="11">
         <v>22</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="6">
         <v>15.7</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M52" s="12">
         <v>8.5</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="6">
         <v>8.12</v>
       </c>
       <c r="O52">
         <v>21.6642492192298</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="12">
         <v>19.05</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="Q52" s="12">
         <v>16.94</v>
       </c>
-      <c r="R52" s="8">
-        <v>3.0610619047619</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3.24191904761905</v>
-      </c>
-      <c r="T52" s="5">
-        <v>3.1653</v>
-      </c>
-    </row>
-    <row r="53" ht="17.25" spans="1:20">
+      <c r="R52" s="10">
+        <v>3.34358095238095</v>
+      </c>
+      <c r="S52" s="6">
+        <v>3.27602857142857</v>
+      </c>
+    </row>
+    <row r="53" ht="17.25" spans="1:19">
       <c r="A53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="4">
-        <v>6.9724</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2.4175315</v>
-      </c>
-      <c r="D53" s="5">
+        <v>70</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6.8971</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2.42997047619048</v>
+      </c>
+      <c r="D53" s="6">
         <v>1.28124814285714</v>
       </c>
-      <c r="E53" s="5">
-        <v>2.05142857142857</v>
-      </c>
-      <c r="F53" s="5">
+      <c r="E53" s="6">
+        <v>2.41952380952381</v>
+      </c>
+      <c r="F53" s="6">
         <v>1.97838709677419</v>
       </c>
       <c r="G53" s="1">
@@ -4526,60 +4387,57 @@
       <c r="H53" s="1">
         <v>22.96</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="9">
         <v>25.6</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="9">
         <v>31.9</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="11">
         <v>21.6</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="6">
         <v>16</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="12">
         <v>7.7</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="6">
         <v>8.22</v>
       </c>
       <c r="O53">
         <v>21.9951473226385</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="12">
         <v>17.93</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="Q53" s="12">
         <v>18.07</v>
       </c>
-      <c r="R53" s="8">
-        <v>3.34358095238095</v>
-      </c>
-      <c r="S53" s="5">
-        <v>3.1653</v>
-      </c>
-      <c r="T53" s="5">
-        <v>3.27602857142857</v>
-      </c>
-    </row>
-    <row r="54" ht="17.25" spans="1:20">
+      <c r="R53" s="10">
+        <v>3.364055</v>
+      </c>
+      <c r="S53" s="6">
+        <v>3.459015</v>
+      </c>
+    </row>
+    <row r="54" ht="17.25" spans="1:19">
       <c r="A54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="4">
-        <v>6.8971</v>
-      </c>
-      <c r="C54" s="5">
-        <v>2.42997047619048</v>
-      </c>
-      <c r="D54" s="5">
+        <v>71</v>
+      </c>
+      <c r="B54" s="5">
+        <v>6.8376</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2.41926739130435</v>
+      </c>
+      <c r="D54" s="6">
         <v>1.20566652380952</v>
       </c>
-      <c r="E54" s="5">
-        <v>2.41952380952381</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="E54" s="6">
+        <v>2.28181818181818</v>
+      </c>
+      <c r="F54" s="6">
         <v>2.001</v>
       </c>
       <c r="G54" s="1">
@@ -4588,60 +4446,57 @@
       <c r="H54" s="1">
         <v>21.9</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="9">
         <v>26.8</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="9">
         <v>33.5</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="11">
         <v>23</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="6">
         <v>16</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M54" s="12">
         <v>7.1</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="6">
         <v>8.84</v>
       </c>
       <c r="O54">
         <v>21.1701906150031</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="12">
         <v>14.19</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q54" s="12">
         <v>17.37</v>
       </c>
-      <c r="R54" s="8">
-        <v>3.364055</v>
-      </c>
-      <c r="S54" s="5">
-        <v>3.27602857142857</v>
-      </c>
-      <c r="T54" s="5">
-        <v>3.459015</v>
-      </c>
-    </row>
-    <row r="55" ht="17.25" spans="1:20">
+      <c r="R54" s="10">
+        <v>3.09057826086957</v>
+      </c>
+      <c r="S54" s="6">
+        <v>3.53158260869565</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" spans="1:19">
       <c r="A55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="4">
-        <v>6.8376</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2.41926739130435</v>
-      </c>
-      <c r="D55" s="5">
+        <v>72</v>
+      </c>
+      <c r="B55" s="5">
+        <v>6.8515</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2.4077825</v>
+      </c>
+      <c r="D55" s="6">
         <v>1.13223754545455</v>
       </c>
-      <c r="E55" s="5">
-        <v>2.28181818181818</v>
-      </c>
-      <c r="F55" s="5">
+      <c r="E55" s="6">
+        <v>2.17714285714286</v>
+      </c>
+      <c r="F55" s="6">
         <v>2.00967741935484</v>
       </c>
       <c r="G55" s="1">
@@ -4650,60 +4505,57 @@
       <c r="H55" s="1">
         <v>22.72</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="9">
         <v>27.3</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="9">
         <v>30.9</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="11">
         <v>23.3</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="6">
         <v>14.7</v>
       </c>
-      <c r="M55" s="10">
+      <c r="M55" s="12">
         <v>6.3</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="6">
         <v>10.03</v>
       </c>
       <c r="O55">
         <v>21.524397483082</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="12">
         <v>13.96</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="Q55" s="12">
         <v>16.35</v>
       </c>
-      <c r="R55" s="8">
-        <v>3.09057826086957</v>
-      </c>
-      <c r="S55" s="5">
-        <v>3.459015</v>
-      </c>
-      <c r="T55" s="5">
-        <v>3.53158260869565</v>
-      </c>
-    </row>
-    <row r="56" ht="17.25" spans="1:20">
+      <c r="R55" s="10">
+        <v>3.23876666666667</v>
+      </c>
+      <c r="S55" s="6">
+        <v>3.55911904761905</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="1:19">
       <c r="A56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="4">
-        <v>6.8515</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2.4077825</v>
-      </c>
-      <c r="D56" s="5">
+        <v>73</v>
+      </c>
+      <c r="B56" s="5">
+        <v>6.8307</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3.19599454545454</v>
+      </c>
+      <c r="D56" s="6">
         <v>1.15307461904762</v>
       </c>
-      <c r="E56" s="5">
-        <v>2.17714285714286</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>1.91285714285714</v>
+      </c>
+      <c r="F56" s="6">
         <v>1.99645161290323</v>
       </c>
       <c r="G56" s="1">
@@ -4712,60 +4564,57 @@
       <c r="H56" s="1">
         <v>22.55</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="9">
         <v>27.4</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="9">
         <v>29.1</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="11">
         <v>23.2</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>12.8</v>
       </c>
-      <c r="M56" s="10">
+      <c r="M56" s="12">
         <v>4.9</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="6">
         <v>10.06</v>
       </c>
       <c r="O56">
         <v>20.3366612136316</v>
       </c>
-      <c r="P56" s="10">
+      <c r="P56" s="12">
         <v>11.48</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q56" s="12">
         <v>16</v>
       </c>
-      <c r="R56" s="8">
-        <v>3.23876666666667</v>
-      </c>
-      <c r="S56" s="5">
-        <v>3.53158260869565</v>
-      </c>
-      <c r="T56" s="5">
-        <v>3.55911904761905</v>
-      </c>
-    </row>
-    <row r="57" ht="17.25" spans="1:20">
+      <c r="R56" s="10">
+        <v>3.17394285714286</v>
+      </c>
+      <c r="S56" s="6">
+        <v>3.3389</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" spans="1:19">
       <c r="A57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="4">
-        <v>6.8307</v>
-      </c>
-      <c r="C57" s="5">
-        <v>3.19599454545454</v>
-      </c>
-      <c r="D57" s="5">
+        <v>74</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6.8316</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3.23119565217391</v>
+      </c>
+      <c r="D57" s="6">
         <v>1.11140823809524</v>
       </c>
-      <c r="E57" s="5">
-        <v>1.91285714285714</v>
-      </c>
-      <c r="F57" s="5">
+      <c r="E57" s="6">
+        <v>1.42045454545455</v>
+      </c>
+      <c r="F57" s="6">
         <v>1.81166666666667</v>
       </c>
       <c r="G57" s="1">
@@ -4774,60 +4623,57 @@
       <c r="H57" s="1">
         <v>22.44</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="9">
         <v>27.6</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="9">
         <v>26.5</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="11">
         <v>23.2</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="6">
         <v>11.4</v>
       </c>
-      <c r="M57" s="10">
+      <c r="M57" s="12">
         <v>4.6</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="6">
         <v>9.13</v>
       </c>
       <c r="O57">
         <v>20.123975024449</v>
       </c>
-      <c r="P57" s="10">
+      <c r="P57" s="12">
         <v>9.43</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="Q57" s="12">
         <v>15.29</v>
       </c>
-      <c r="R57" s="8">
-        <v>3.17394285714286</v>
-      </c>
-      <c r="S57" s="5">
-        <v>3.55911904761905</v>
-      </c>
-      <c r="T57" s="5">
-        <v>3.3389</v>
-      </c>
-    </row>
-    <row r="58" ht="17.25" spans="1:20">
+      <c r="R57" s="10">
+        <v>3.136415</v>
+      </c>
+      <c r="S57" s="6">
+        <v>2.801175</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" spans="1:19">
       <c r="A58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="4">
-        <v>6.8316</v>
-      </c>
-      <c r="C58" s="5">
-        <v>3.23119565217391</v>
-      </c>
-      <c r="D58" s="5">
+        <v>75</v>
+      </c>
+      <c r="B58" s="5">
+        <v>6.8286</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.97575</v>
+      </c>
+      <c r="D58" s="6">
         <v>0.917671434782609</v>
       </c>
-      <c r="E58" s="5">
-        <v>1.42045454545455</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="E58" s="6">
+        <v>1.06666666666667</v>
+      </c>
+      <c r="F58" s="6">
         <v>0.969354838709677</v>
       </c>
       <c r="G58" s="1">
@@ -4836,60 +4682,57 @@
       <c r="H58" s="1">
         <v>22.1</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="9">
         <v>27.2</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="9">
         <v>24.6</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="11">
         <v>22</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="6">
         <v>8.2</v>
       </c>
-      <c r="M58" s="10">
+      <c r="M58" s="12">
         <v>4</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="6">
         <v>6.59</v>
       </c>
       <c r="O58">
         <v>19.1888409079411</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="12">
         <v>8.85</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="12">
         <v>15.02</v>
       </c>
-      <c r="R58" s="8">
-        <v>3.136415</v>
-      </c>
-      <c r="S58" s="5">
-        <v>3.3389</v>
-      </c>
-      <c r="T58" s="5">
-        <v>2.801175</v>
-      </c>
-    </row>
-    <row r="59" ht="17.25" spans="1:20">
+      <c r="R58" s="10">
+        <v>2.64809</v>
+      </c>
+      <c r="S58" s="6">
+        <v>2.179235</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25" spans="1:19">
       <c r="A59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="4">
-        <v>6.8286</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0.97575</v>
-      </c>
-      <c r="D59" s="5">
+        <v>76</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6.8424</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.572172857142857</v>
+      </c>
+      <c r="D59" s="6">
         <v>0.861455421052632</v>
       </c>
-      <c r="E59" s="5">
-        <v>1.06666666666667</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="E59" s="6">
+        <v>0.494545454545455</v>
+      </c>
+      <c r="F59" s="6">
         <v>0.387666666666667</v>
       </c>
       <c r="G59" s="1">
@@ -4898,60 +4741,57 @@
       <c r="H59" s="1">
         <v>19.51</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="9">
         <v>26.8</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="9">
         <v>22.7</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="11">
         <v>20.8</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="6">
         <v>5.4</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M59" s="12">
         <v>2.4</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="6">
         <v>1.99</v>
       </c>
       <c r="O59">
         <v>19.4407908318244</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="12">
         <v>6.8</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="12">
         <v>14.8</v>
       </c>
-      <c r="R59" s="8">
-        <v>2.64809</v>
-      </c>
-      <c r="S59" s="5">
-        <v>2.801175</v>
-      </c>
-      <c r="T59" s="5">
-        <v>2.179235</v>
-      </c>
-    </row>
-    <row r="60" ht="17.25" spans="1:20">
+      <c r="R59" s="10">
+        <v>1.51186956521739</v>
+      </c>
+      <c r="S59" s="6">
+        <v>1.2988347826087</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" spans="1:19">
       <c r="A60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="4">
-        <v>6.8424</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0.572172857142857</v>
-      </c>
-      <c r="D60" s="5">
+        <v>77</v>
+      </c>
+      <c r="B60" s="5">
+        <v>6.8382</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.276488571428571</v>
+      </c>
+      <c r="D60" s="6">
         <v>0.859556090909091</v>
       </c>
-      <c r="E60" s="5">
-        <v>0.494545454545455</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="E60" s="6">
+        <v>0.4445</v>
+      </c>
+      <c r="F60" s="6">
         <v>0.155161290322581</v>
       </c>
       <c r="G60" s="1">
@@ -4960,60 +4800,57 @@
       <c r="H60" s="1">
         <v>17.4</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="9">
         <v>26.6</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="9">
         <v>23.4</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="11">
         <v>19</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="6">
         <v>5.7</v>
       </c>
-      <c r="M60" s="10">
+      <c r="M60" s="12">
         <v>1.2</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="6">
         <v>-1.14</v>
       </c>
       <c r="O60">
         <v>20.3292686833621</v>
       </c>
-      <c r="P60" s="10">
+      <c r="P60" s="12">
         <v>9.06</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q60" s="12">
         <v>17.82</v>
       </c>
-      <c r="R60" s="8">
-        <v>1.51186956521739</v>
-      </c>
-      <c r="S60" s="5">
-        <v>2.179235</v>
-      </c>
-      <c r="T60" s="5">
-        <v>1.2988347826087</v>
-      </c>
-    </row>
-    <row r="61" ht="17.25" spans="1:20">
+      <c r="R60" s="10">
+        <v>0.951711764705882</v>
+      </c>
+      <c r="S60" s="6">
+        <v>1.07118235294118</v>
+      </c>
+    </row>
+    <row r="61" ht="17.25" spans="1:19">
       <c r="A61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="4">
-        <v>6.8382</v>
-      </c>
-      <c r="C61" s="5">
-        <v>0.276488571428571</v>
-      </c>
-      <c r="D61" s="5">
+        <v>78</v>
+      </c>
+      <c r="B61" s="5">
+        <v>6.8357</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0.3625315</v>
+      </c>
+      <c r="D61" s="6">
         <v>0.83962015</v>
       </c>
-      <c r="E61" s="5">
-        <v>0.4445</v>
-      </c>
-      <c r="F61" s="5">
+      <c r="E61" s="6">
+        <v>0.622631578947368</v>
+      </c>
+      <c r="F61" s="6">
         <v>0.154193548387097</v>
       </c>
       <c r="G61" s="1">
@@ -5022,60 +4859,57 @@
       <c r="H61" s="1">
         <v>-17.56</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="9">
         <v>26.5</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="9">
         <v>1</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="11">
         <v>18.5</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="6">
         <v>-2.93</v>
       </c>
-      <c r="M61" s="10">
+      <c r="M61" s="12">
         <v>1</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="6">
         <v>-3.35</v>
       </c>
       <c r="O61">
         <v>20.5899623404267</v>
       </c>
-      <c r="P61" s="10">
+      <c r="P61" s="12">
         <v>6.68</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q61" s="12">
         <v>18.79</v>
       </c>
-      <c r="R61" s="8">
-        <v>0.951711764705882</v>
-      </c>
-      <c r="S61" s="5">
-        <v>1.2988347826087</v>
-      </c>
-      <c r="T61" s="5">
-        <v>1.07118235294118</v>
-      </c>
-    </row>
-    <row r="62" ht="17.25" spans="1:20">
+      <c r="R61" s="10">
+        <v>0.953680952380952</v>
+      </c>
+      <c r="S61" s="6">
+        <v>1.08778571428571</v>
+      </c>
+    </row>
+    <row r="62" ht="17.25" spans="1:19">
       <c r="A62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="4">
-        <v>6.8357</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0.3625315</v>
-      </c>
-      <c r="D62" s="5">
+        <v>79</v>
+      </c>
+      <c r="B62" s="5">
+        <v>6.8341</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.413893181818182</v>
+      </c>
+      <c r="D62" s="6">
         <v>0.769049631578947</v>
       </c>
-      <c r="E62" s="5">
-        <v>0.622631578947368</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="E62" s="6">
+        <v>0.644090909090909</v>
+      </c>
+      <c r="F62" s="6">
         <v>0.222142857142857</v>
       </c>
       <c r="G62" s="1">
@@ -5084,60 +4918,57 @@
       <c r="H62" s="1">
         <v>-21.19</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="9">
         <v>26.5</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="9">
         <v>1</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="11">
         <v>11.6</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="6">
         <v>11</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M62" s="12">
         <v>-1.6</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62" s="6">
         <v>-4.47</v>
       </c>
       <c r="O62">
         <v>22.1015330527055</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P62" s="12">
         <v>10.87</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q62" s="12">
         <v>20.48</v>
       </c>
-      <c r="R62" s="8">
-        <v>0.953680952380952</v>
-      </c>
-      <c r="S62" s="5">
-        <v>1.07118235294118</v>
-      </c>
-      <c r="T62" s="5">
-        <v>1.08778571428571</v>
-      </c>
-    </row>
-    <row r="63" ht="17.25" spans="1:20">
+      <c r="R62" s="10">
+        <v>0.954518181818182</v>
+      </c>
+      <c r="S62" s="6">
+        <v>0.930236363636364</v>
+      </c>
+    </row>
+    <row r="63" ht="17.25" spans="1:19">
       <c r="A63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="4">
-        <v>6.8341</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0.413893181818182</v>
-      </c>
-      <c r="D63" s="5">
+        <v>80</v>
+      </c>
+      <c r="B63" s="5">
+        <v>6.8312</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0.3534385</v>
+      </c>
+      <c r="D63" s="6">
         <v>0.723546636363636</v>
       </c>
-      <c r="E63" s="5">
-        <v>0.644090909090909</v>
-      </c>
-      <c r="F63" s="5">
+      <c r="E63" s="6">
+        <v>0.547619047619048</v>
+      </c>
+      <c r="F63" s="6">
         <v>0.180645161290323</v>
       </c>
       <c r="G63" s="1">
@@ -5146,60 +4977,57 @@
       <c r="H63" s="1">
         <v>-19.78</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="9">
         <v>28.6</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="9">
         <v>4.1</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="11">
         <v>14.7</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="6">
         <v>8.3</v>
       </c>
-      <c r="M63" s="10">
+      <c r="M63" s="12">
         <v>-1.2</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="6">
         <v>-6</v>
       </c>
       <c r="O63">
         <v>25.9902887110371</v>
       </c>
-      <c r="P63" s="10">
+      <c r="P63" s="12">
         <v>17.04</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="Q63" s="12">
         <v>25.51</v>
       </c>
-      <c r="R63" s="8">
-        <v>0.954518181818182</v>
-      </c>
-      <c r="S63" s="5">
-        <v>1.08778571428571</v>
-      </c>
-      <c r="T63" s="5">
-        <v>0.930236363636364</v>
-      </c>
-    </row>
-    <row r="64" ht="17.25" spans="1:20">
+      <c r="R63" s="10">
+        <v>0.944857142857143</v>
+      </c>
+      <c r="S63" s="6">
+        <v>0.9906</v>
+      </c>
+    </row>
+    <row r="64" ht="17.25" spans="1:19">
       <c r="A64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="4">
-        <v>6.8312</v>
-      </c>
-      <c r="C64" s="5">
-        <v>0.3534385</v>
-      </c>
-      <c r="D64" s="5">
+        <v>81</v>
+      </c>
+      <c r="B64" s="5">
+        <v>6.8245</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.295658947368421</v>
+      </c>
+      <c r="D64" s="6">
         <v>0.799212142857143</v>
       </c>
-      <c r="E64" s="5">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="F64" s="5">
+      <c r="E64" s="6">
+        <v>0.5015</v>
+      </c>
+      <c r="F64" s="6">
         <v>0.150333333333333</v>
       </c>
       <c r="G64" s="1">
@@ -5208,60 +5036,57 @@
       <c r="H64" s="1">
         <v>-20.61</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="9">
         <v>30.5</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="9">
         <v>4.9</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="11">
         <v>14.8</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="6">
         <v>7.3</v>
       </c>
-      <c r="M64" s="10">
+      <c r="M64" s="12">
         <v>-1.5</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="6">
         <v>-6.6</v>
       </c>
       <c r="O64">
         <v>25.0604150108479</v>
       </c>
-      <c r="P64" s="10">
+      <c r="P64" s="12">
         <v>17.48</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="12">
         <v>25.89</v>
       </c>
-      <c r="R64" s="8">
-        <v>0.944857142857143</v>
-      </c>
-      <c r="S64" s="5">
-        <v>0.930236363636364</v>
-      </c>
-      <c r="T64" s="5">
-        <v>0.9906</v>
-      </c>
-    </row>
-    <row r="65" ht="17.25" spans="1:20">
+      <c r="R64" s="10">
+        <v>0.952063157894737</v>
+      </c>
+      <c r="S64" s="6">
+        <v>0.948221052631579</v>
+      </c>
+    </row>
+    <row r="65" ht="17.25" spans="1:19">
       <c r="A65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="4">
-        <v>6.8245</v>
-      </c>
-      <c r="C65" s="5">
-        <v>0.295658947368421</v>
-      </c>
-      <c r="D65" s="5">
+        <v>82</v>
+      </c>
+      <c r="B65" s="5">
+        <v>6.8332</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0.291394545454546</v>
+      </c>
+      <c r="D65" s="6">
         <v>0.83983685</v>
       </c>
-      <c r="E65" s="5">
-        <v>0.5015</v>
-      </c>
-      <c r="F65" s="5">
+      <c r="E65" s="6">
+        <v>0.513636363636364</v>
+      </c>
+      <c r="F65" s="6">
         <v>0.17741935483871</v>
       </c>
       <c r="G65" s="1">
@@ -5270,60 +5095,57 @@
       <c r="H65" s="1">
         <v>-21.92</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="9">
         <v>32.9</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="9">
         <v>5.8</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="11">
         <v>15.2</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="6">
         <v>8.9</v>
       </c>
-      <c r="M65" s="10">
+      <c r="M65" s="12">
         <v>-1.4</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="6">
         <v>-7.2</v>
       </c>
       <c r="O65">
         <v>27.1387086024406</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="12">
         <v>18.69</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="Q65" s="12">
         <v>25.74</v>
       </c>
-      <c r="R65" s="8">
-        <v>0.952063157894737</v>
-      </c>
-      <c r="S65" s="5">
-        <v>0.9906</v>
-      </c>
-      <c r="T65" s="5">
-        <v>0.948221052631579</v>
-      </c>
-    </row>
-    <row r="66" ht="17.25" spans="1:20">
+      <c r="R65" s="10">
+        <v>1.01651818181818</v>
+      </c>
+      <c r="S65" s="6">
+        <v>0.986045454545455</v>
+      </c>
+    </row>
+    <row r="66" ht="17.25" spans="1:19">
       <c r="A66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="4">
-        <v>6.8332</v>
-      </c>
-      <c r="C66" s="5">
-        <v>0.291394545454546</v>
-      </c>
-      <c r="D66" s="5">
+        <v>83</v>
+      </c>
+      <c r="B66" s="5">
+        <v>6.832</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0.269377391304348</v>
+      </c>
+      <c r="D66" s="6">
         <v>0.859299863636363</v>
       </c>
-      <c r="E66" s="5">
-        <v>0.513636363636364</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="E66" s="6">
+        <v>0.478636363636364</v>
+      </c>
+      <c r="F66" s="6">
         <v>0.206333333333333</v>
       </c>
       <c r="G66" s="1">
@@ -5332,60 +5154,57 @@
       <c r="H66" s="1">
         <v>-21.81</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="9">
         <v>33.6</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="9">
         <v>8.3</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="11">
         <v>15</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="6">
         <v>10.7</v>
       </c>
-      <c r="M66" s="10">
+      <c r="M66" s="12">
         <v>-1.7</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="6">
         <v>-7.8</v>
       </c>
       <c r="O66">
         <v>30.6455980295669</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P66" s="12">
         <v>24.79</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="Q66" s="12">
         <v>28.46</v>
       </c>
-      <c r="R66" s="8">
-        <v>1.01651818181818</v>
-      </c>
-      <c r="S66" s="5">
-        <v>0.948221052631579</v>
-      </c>
-      <c r="T66" s="5">
-        <v>0.986045454545455</v>
-      </c>
-    </row>
-    <row r="67" ht="17.25" spans="1:20">
+      <c r="R66" s="10">
+        <v>1.51419565217391</v>
+      </c>
+      <c r="S66" s="6">
+        <v>1.40385652173913</v>
+      </c>
+    </row>
+    <row r="67" ht="17.25" spans="1:19">
       <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="4">
-        <v>6.832</v>
-      </c>
-      <c r="C67" s="5">
-        <v>0.269377391304348</v>
-      </c>
-      <c r="D67" s="5">
+        <v>84</v>
+      </c>
+      <c r="B67" s="5">
+        <v>6.8322</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0.2576265</v>
+      </c>
+      <c r="D67" s="6">
         <v>0.867974590909091</v>
       </c>
-      <c r="E67" s="5">
-        <v>0.478636363636364</v>
-      </c>
-      <c r="F67" s="5">
+      <c r="E67" s="6">
+        <v>0.459047619047619</v>
+      </c>
+      <c r="F67" s="6">
         <v>0.155806451612903</v>
       </c>
       <c r="G67" s="1">
@@ -5394,60 +5213,57 @@
       <c r="H67" s="1">
         <v>-22.01</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="9">
         <v>32.9</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="9">
         <v>9.5</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="11">
         <v>15.2</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="6">
         <v>10.8</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M67" s="12">
         <v>-1.8</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="6">
         <v>-8.2</v>
       </c>
       <c r="O67">
         <v>30.9025421114333</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P67" s="12">
         <v>26.37</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="12">
         <v>28.42</v>
       </c>
-      <c r="R67" s="8">
-        <v>1.51419565217391</v>
-      </c>
-      <c r="S67" s="5">
-        <v>0.986045454545455</v>
-      </c>
-      <c r="T67" s="5">
-        <v>1.40385652173913</v>
-      </c>
-    </row>
-    <row r="68" ht="17.25" spans="1:20">
+      <c r="R67" s="10">
+        <v>1.47730952380952</v>
+      </c>
+      <c r="S67" s="6">
+        <v>1.6120619047619</v>
+      </c>
+    </row>
+    <row r="68" ht="17.25" spans="1:19">
       <c r="A68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="4">
-        <v>6.8322</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0.2576265</v>
-      </c>
-      <c r="D68" s="5">
+        <v>85</v>
+      </c>
+      <c r="B68" s="5">
+        <v>6.8289</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0.242866818181818</v>
+      </c>
+      <c r="D68" s="6">
         <v>0.937506190476191</v>
       </c>
-      <c r="E68" s="5">
-        <v>0.459047619047619</v>
-      </c>
-      <c r="F68" s="5">
+      <c r="E68" s="6">
+        <v>0.404761904761905</v>
+      </c>
+      <c r="F68" s="6">
         <v>0.160322580645161</v>
       </c>
       <c r="G68" s="1">
@@ -5456,102 +5272,37 @@
       <c r="H68" s="1">
         <v>-22.21</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="9">
         <v>33</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="9">
         <v>12.5</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="11">
         <v>15.4</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="6">
         <v>12.3</v>
       </c>
-      <c r="M68" s="10">
+      <c r="M68" s="12">
         <v>-1.2</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68" s="6">
         <v>-7.86</v>
       </c>
       <c r="O68">
         <v>31.3246582965521</v>
       </c>
-      <c r="P68" s="10">
+      <c r="P68" s="12">
         <v>27.72</v>
       </c>
-      <c r="Q68" s="10">
+      <c r="Q68" s="12">
         <v>28.53</v>
       </c>
-      <c r="R68" s="8">
-        <v>1.47730952380952</v>
-      </c>
-      <c r="S68" s="5">
-        <v>1.40385652173913</v>
-      </c>
-      <c r="T68" s="5">
-        <v>1.6120619047619</v>
-      </c>
-    </row>
-    <row r="69" ht="17.25" spans="1:20">
-      <c r="A69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="4">
-        <v>6.8289</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0.242866818181818</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0.963497095238095</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0.404761904761905</v>
-      </c>
-      <c r="F69" s="5">
-        <v>0.146666666666667</v>
-      </c>
-      <c r="G69" s="1">
-        <v>-20.28</v>
-      </c>
-      <c r="H69" s="1">
-        <v>-21.33</v>
-      </c>
-      <c r="I69" s="7">
-        <v>33.3</v>
-      </c>
-      <c r="J69" s="7">
-        <v>15.4</v>
-      </c>
-      <c r="K69" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="L69" s="5">
-        <v>13.9</v>
-      </c>
-      <c r="M69" s="10">
-        <v>-0.8</v>
-      </c>
-      <c r="N69" s="5">
-        <v>-6.99</v>
-      </c>
-      <c r="O69">
-        <v>32.4367112389216</v>
-      </c>
-      <c r="P69" s="10">
-        <v>29.51</v>
-      </c>
-      <c r="Q69" s="10">
-        <v>29.31</v>
-      </c>
-      <c r="R69" s="8">
+      <c r="R68" s="10">
         <v>1.59353913043478</v>
       </c>
-      <c r="S69" s="5">
-        <v>1.6120619047619</v>
-      </c>
-      <c r="T69" s="5">
+      <c r="S68" s="6">
         <v>1.51117826086957</v>
       </c>
     </row>
